--- a/DailyVocabulary1.xlsx
+++ b/DailyVocabulary1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Accomplish</t>
   </si>
@@ -117,13 +117,58 @@
   </si>
   <si>
     <t>The teacher gave out scholastic awards to the students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elucidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To make clear</t>
+  </si>
+  <si>
+    <t>The scholarly speaker elucidated on the topic in great details.</t>
+  </si>
+  <si>
+    <t>To calm</t>
+  </si>
+  <si>
+    <t>Pacify</t>
+  </si>
+  <si>
+    <t>The wise man tried to pacify both the warring parties, but they were hell bent on going ahead with their fight.</t>
+  </si>
+  <si>
+    <t>Uprorious</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>I entered the market to find out that it was completely chaotic and uproarious.</t>
+  </si>
+  <si>
+    <t>Radical</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>The frenzied mob, enraged by the police excesses, went on a rampage and set ablaze several government buildings.</t>
+  </si>
+  <si>
+    <t>Rampage</t>
+  </si>
+  <si>
+    <t>Voilence</t>
+  </si>
+  <si>
+    <t>Osho Rajneesh’s radical ideas, which were in direct opposition to those of prevailing and popular religions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +204,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF696969"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -193,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -204,6 +256,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,17 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="96.54296875" customWidth="1"/>
+    <col min="5" max="5" width="97.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.35">
@@ -629,6 +684,72 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
